--- a/CustomLocalization/Localization/RogueTech/RU/RogueModuleTech Widget/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/RogueModuleTech Widget/LocalizationDef.xlsx
@@ -8345,15 +8345,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2058"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2019" workbookViewId="0">
-      <selection activeCell="C2049" sqref="C2049"/>
+    <sheetView tabSelected="1" topLeftCell="A2038" workbookViewId="0">
+      <selection activeCell="C2058" sqref="C1:C2058"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="80" customWidth="1" style="2"/>
-    <col min="4" max="5" width="9.140625" customWidth="1" style="2"/>
-    <col min="6" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="4" max="6" width="9.140625" customWidth="1" style="2"/>
+    <col min="7" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/CustomLocalization/Localization/RogueTech/RU/RogueModuleTech Widget/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/RogueModuleTech Widget/LocalizationDef.xlsx
@@ -8345,15 +8345,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2058"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2038" workbookViewId="0">
-      <selection activeCell="C2058" sqref="C1:C2058"/>
+    <sheetView tabSelected="1" topLeftCell="A1522" workbookViewId="0">
+      <selection activeCell="C2063" sqref="C2063"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="80" customWidth="1" style="2"/>
-    <col min="4" max="6" width="9.140625" customWidth="1" style="2"/>
-    <col min="7" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="4" max="7" width="9.140625" customWidth="1" style="2"/>
+    <col min="8" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
